--- a/PhoenixCI/Excel_Template/35050.xlsx
+++ b/PhoenixCI/Excel_Template/35050.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4538590C-E754-4BC7-AD16-8873563FCF41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C250DDD1-E44B-423C-8FAC-F5FFE6AD8F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3315" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14955" windowHeight="7095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TSE_OTC" sheetId="1" r:id="rId1"/>
     <sheet name="T5" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -82,10 +81,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="0.##########_ ;[Red]\-0.##########;0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,17 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -501,8 +493,7 @@
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
@@ -533,7 +524,7 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -545,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/PhoenixCI/Excel_Template/35050.xlsx
+++ b/PhoenixCI/Excel_Template/35050.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C250DDD1-E44B-423C-8FAC-F5FFE6AD8F81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4538590C-E754-4BC7-AD16-8873563FCF41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14955" windowHeight="7095" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="3315" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSE_OTC" sheetId="1" r:id="rId1"/>
     <sheet name="T5" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,9 +82,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="178" formatCode="0.##########_ ;[Red]\-0.##########;0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,11 +138,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -493,7 +501,8 @@
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.125" style="4" customWidth="1"/>
+    <col min="6" max="9" width="10.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
@@ -524,7 +533,7 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -536,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
